--- a/TableReader/src/test/TestData/TableReader.ExcelDataReader.Reader_Test.xlsx
+++ b/TableReader/src/test/TestData/TableReader.ExcelDataReader.Reader_Test.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="103">
   <si>
     <t>Header_r_001_c_001</t>
     <phoneticPr fontId="1"/>
@@ -212,7 +212,157 @@
     <t>Header_004_r_001_c_004</t>
   </si>
   <si>
-    <t>Header_004_r_001_c_005</t>
+    <t>TestTable_005</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Header_005_r_001_c_001</t>
+  </si>
+  <si>
+    <t>Header_005_r_001_c_002</t>
+  </si>
+  <si>
+    <t>Header_005_r_001_c_003</t>
+  </si>
+  <si>
+    <t>Header_005_r_001_c_004</t>
+  </si>
+  <si>
+    <t>Header_005_r_001_c_005</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Data_005_r_001_c_002</t>
+  </si>
+  <si>
+    <t>Data_005_r_001_c_003</t>
+  </si>
+  <si>
+    <t>Data_005_r_001_c_004</t>
+  </si>
+  <si>
+    <t>Data_005_r_001_c_005</t>
+  </si>
+  <si>
+    <t>Data_005_r_002_c_001</t>
+  </si>
+  <si>
+    <t>Data_005_r_002_c_002</t>
+  </si>
+  <si>
+    <t>Data_005_r_002_c_003</t>
+  </si>
+  <si>
+    <t>Data_005_r_002_c_004</t>
+  </si>
+  <si>
+    <t>Data_005_r_002_c_005</t>
+  </si>
+  <si>
+    <t>Data_005_r_003_c_001</t>
+  </si>
+  <si>
+    <t>Data_005_r_003_c_002</t>
+  </si>
+  <si>
+    <t>Data_005_r_003_c_003</t>
+  </si>
+  <si>
+    <t>Data_005_r_003_c_004</t>
+  </si>
+  <si>
+    <t>Data_005_r_003_c_005</t>
+  </si>
+  <si>
+    <t>Data_005_r_004_c_001</t>
+  </si>
+  <si>
+    <t>Data_005_r_004_c_002</t>
+  </si>
+  <si>
+    <t>Data_005_r_004_c_003</t>
+  </si>
+  <si>
+    <t>Data_005_r_004_c_004</t>
+  </si>
+  <si>
+    <t>Data_005_r_004_c_005</t>
+  </si>
+  <si>
+    <t>TestTable_006</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Header_005_r_001_c_005</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Data_005_r_001_c_001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Data_005_r_002_c_001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TestTable_007</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Data_005_r_001_c_001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Data_005_r_001_c_005</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Data_005_r_001_c_005</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Data_005_r_002_c_001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TestTable_008</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Data_005_r_001_c_005</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Data_005_r_003_c_001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Data_005_r_003_c_001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Data_005_r_004_c_001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TestTable_009</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Header_005_r_001_c_005</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Data_005_r_003_c_005</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Data_005_r_004_c_001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Data_005_r_004_c_005</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -540,10 +690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -730,9 +880,6 @@
       <c r="F18" t="s">
         <v>58</v>
       </c>
-      <c r="G18" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
@@ -800,6 +947,441 @@
       </c>
       <c r="G22" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" t="s">
+        <v>63</v>
+      </c>
+      <c r="G24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" t="s">
+        <v>67</v>
+      </c>
+      <c r="G25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" t="s">
+        <v>71</v>
+      </c>
+      <c r="F26" t="s">
+        <v>72</v>
+      </c>
+      <c r="G26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" t="s">
+        <v>76</v>
+      </c>
+      <c r="F27" t="s">
+        <v>77</v>
+      </c>
+      <c r="G27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" t="s">
+        <v>81</v>
+      </c>
+      <c r="F28" t="s">
+        <v>82</v>
+      </c>
+      <c r="G28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" t="s">
+        <v>61</v>
+      </c>
+      <c r="E30" t="s">
+        <v>62</v>
+      </c>
+      <c r="F30" t="s">
+        <v>63</v>
+      </c>
+      <c r="G30" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" t="s">
+        <v>66</v>
+      </c>
+      <c r="F31" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32" t="s">
+        <v>70</v>
+      </c>
+      <c r="E32" t="s">
+        <v>71</v>
+      </c>
+      <c r="F32" t="s">
+        <v>72</v>
+      </c>
+      <c r="G32" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" t="s">
+        <v>75</v>
+      </c>
+      <c r="E33" t="s">
+        <v>76</v>
+      </c>
+      <c r="F33" t="s">
+        <v>77</v>
+      </c>
+      <c r="G33" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
+        <v>79</v>
+      </c>
+      <c r="D34" t="s">
+        <v>80</v>
+      </c>
+      <c r="E34" t="s">
+        <v>81</v>
+      </c>
+      <c r="F34" t="s">
+        <v>82</v>
+      </c>
+      <c r="G34" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" t="s">
+        <v>61</v>
+      </c>
+      <c r="E36" t="s">
+        <v>62</v>
+      </c>
+      <c r="F36" t="s">
+        <v>63</v>
+      </c>
+      <c r="G36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>89</v>
+      </c>
+      <c r="D37" t="s">
+        <v>65</v>
+      </c>
+      <c r="E37" t="s">
+        <v>66</v>
+      </c>
+      <c r="F37" t="s">
+        <v>67</v>
+      </c>
+      <c r="G37" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
+        <v>92</v>
+      </c>
+      <c r="D38" t="s">
+        <v>70</v>
+      </c>
+      <c r="E38" t="s">
+        <v>71</v>
+      </c>
+      <c r="F38" t="s">
+        <v>72</v>
+      </c>
+      <c r="G38" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
+        <v>74</v>
+      </c>
+      <c r="D39" t="s">
+        <v>75</v>
+      </c>
+      <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
+        <v>77</v>
+      </c>
+      <c r="G39" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D40" t="s">
+        <v>80</v>
+      </c>
+      <c r="E40" t="s">
+        <v>81</v>
+      </c>
+      <c r="F40" t="s">
+        <v>82</v>
+      </c>
+      <c r="G40" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C42" t="s">
+        <v>60</v>
+      </c>
+      <c r="D42" t="s">
+        <v>61</v>
+      </c>
+      <c r="E42" t="s">
+        <v>62</v>
+      </c>
+      <c r="F42" t="s">
+        <v>63</v>
+      </c>
+      <c r="G42" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C43" t="s">
+        <v>86</v>
+      </c>
+      <c r="D43" t="s">
+        <v>65</v>
+      </c>
+      <c r="E43" t="s">
+        <v>66</v>
+      </c>
+      <c r="F43" t="s">
+        <v>67</v>
+      </c>
+      <c r="G43" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C44" t="s">
+        <v>87</v>
+      </c>
+      <c r="D44" t="s">
+        <v>70</v>
+      </c>
+      <c r="E44" t="s">
+        <v>71</v>
+      </c>
+      <c r="F44" t="s">
+        <v>72</v>
+      </c>
+      <c r="G44" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C45" t="s">
+        <v>96</v>
+      </c>
+      <c r="D45" t="s">
+        <v>75</v>
+      </c>
+      <c r="E45" t="s">
+        <v>76</v>
+      </c>
+      <c r="F45" t="s">
+        <v>77</v>
+      </c>
+      <c r="G45" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
+        <v>97</v>
+      </c>
+      <c r="D46" t="s">
+        <v>80</v>
+      </c>
+      <c r="E46" t="s">
+        <v>81</v>
+      </c>
+      <c r="F46" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C48" t="s">
+        <v>60</v>
+      </c>
+      <c r="D48" t="s">
+        <v>61</v>
+      </c>
+      <c r="E48" t="s">
+        <v>62</v>
+      </c>
+      <c r="F48" t="s">
+        <v>63</v>
+      </c>
+      <c r="G48" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C49" t="s">
+        <v>86</v>
+      </c>
+      <c r="D49" t="s">
+        <v>65</v>
+      </c>
+      <c r="E49" t="s">
+        <v>66</v>
+      </c>
+      <c r="F49" t="s">
+        <v>67</v>
+      </c>
+      <c r="G49" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C50" t="s">
+        <v>92</v>
+      </c>
+      <c r="D50" t="s">
+        <v>70</v>
+      </c>
+      <c r="F50" t="s">
+        <v>72</v>
+      </c>
+      <c r="G50" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C51" t="s">
+        <v>95</v>
+      </c>
+      <c r="D51" t="s">
+        <v>75</v>
+      </c>
+      <c r="E51" t="s">
+        <v>76</v>
+      </c>
+      <c r="F51" t="s">
+        <v>77</v>
+      </c>
+      <c r="G51" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C52" t="s">
+        <v>101</v>
+      </c>
+      <c r="D52" t="s">
+        <v>80</v>
+      </c>
+      <c r="E52" t="s">
+        <v>81</v>
+      </c>
+      <c r="F52" t="s">
+        <v>82</v>
+      </c>
+      <c r="G52" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
